--- a/3_output/effective_allowance_men.xlsx
+++ b/3_output/effective_allowance_men.xlsx
@@ -449,10 +449,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>4552492.22049058</v>
+        <v>4552492.239434143</v>
       </c>
       <c r="C2" t="n">
-        <v>2767357.011046707</v>
+        <v>2767357.022131823</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +460,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="n">
-        <v>3679832.231153855</v>
+        <v>3679832.246773309</v>
       </c>
       <c r="C3" t="n">
-        <v>2259692.270031271</v>
+        <v>2259692.279434312</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>2951038.999072574</v>
+        <v>2951039.012380492</v>
       </c>
       <c r="C4" t="n">
-        <v>1819897.993474851</v>
+        <v>1819898.001486328</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +482,10 @@
         <v>55</v>
       </c>
       <c r="B5" t="n">
-        <v>2350772.660075647</v>
+        <v>2350772.671046641</v>
       </c>
       <c r="C5" t="n">
-        <v>1466614.414098095</v>
+        <v>1466614.42051794</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +493,10 @@
         <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>1860856.025626318</v>
+        <v>1860856.035198688</v>
       </c>
       <c r="C6" t="n">
-        <v>1196274.226040941</v>
+        <v>1196274.23164236</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +504,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="n">
-        <v>1467371.928522171</v>
+        <v>1467371.936564082</v>
       </c>
       <c r="C7" t="n">
-        <v>972252.0664299513</v>
+        <v>972252.0714345562</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +515,10 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>1148348.026338181</v>
+        <v>1148348.033760269</v>
       </c>
       <c r="C8" t="n">
-        <v>773019.9285392055</v>
+        <v>773019.9331580854</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +526,10 @@
         <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>890111.6895596992</v>
+        <v>890111.6960754596</v>
       </c>
       <c r="C9" t="n">
-        <v>621534.9328841236</v>
+        <v>621534.9366969205</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +537,10 @@
         <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>683314.8376913941</v>
+        <v>683314.8444634643</v>
       </c>
       <c r="C10" t="n">
-        <v>530585.8736007778</v>
+        <v>530585.8775635583</v>
       </c>
     </row>
   </sheetData>
@@ -575,10 +575,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>7773283.039886139</v>
+        <v>7773283.086922106</v>
       </c>
       <c r="C2" t="n">
-        <v>4953034.474723284</v>
+        <v>4953034.504077809</v>
       </c>
     </row>
     <row r="3">
@@ -586,10 +586,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="n">
-        <v>5904517.019079958</v>
+        <v>5904517.055429242</v>
       </c>
       <c r="C3" t="n">
-        <v>3788983.40486727</v>
+        <v>3788983.427819571</v>
       </c>
     </row>
     <row r="4">
@@ -597,10 +597,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>4461477.700064341</v>
+        <v>4461477.728611518</v>
       </c>
       <c r="C4" t="n">
-        <v>2875168.602180656</v>
+        <v>2875168.620206414</v>
       </c>
     </row>
     <row r="5">
@@ -608,10 +608,10 @@
         <v>55</v>
       </c>
       <c r="B5" t="n">
-        <v>3357362.244935823</v>
+        <v>3357362.267104854</v>
       </c>
       <c r="C5" t="n">
-        <v>2184765.007007325</v>
+        <v>2184765.020842724</v>
       </c>
     </row>
     <row r="6">
@@ -619,10 +619,10 @@
         <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>2518789.201611871</v>
+        <v>2518789.21944154</v>
       </c>
       <c r="C6" t="n">
-        <v>1677651.75070259</v>
+        <v>1677651.761829851</v>
       </c>
     </row>
     <row r="7">
@@ -630,10 +630,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="n">
-        <v>1888256.576664063</v>
+        <v>1888256.59086165</v>
       </c>
       <c r="C7" t="n">
-        <v>1289429.910146401</v>
+        <v>1289429.919310359</v>
       </c>
     </row>
     <row r="8">
@@ -641,10 +641,10 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>1410064.814287545</v>
+        <v>1410064.826365808</v>
       </c>
       <c r="C8" t="n">
-        <v>978383.7183010468</v>
+        <v>978383.7260970677</v>
       </c>
     </row>
     <row r="9">
@@ -652,10 +652,10 @@
         <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>1046310.577807733</v>
+        <v>1046310.587932651</v>
       </c>
       <c r="C9" t="n">
-        <v>751720.382233332</v>
+        <v>751720.3885521593</v>
       </c>
     </row>
     <row r="10">
@@ -663,10 +663,10 @@
         <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>771967.7733290221</v>
+        <v>771967.783029003</v>
       </c>
       <c r="C10" t="n">
-        <v>610249.7861847061</v>
+        <v>610249.7922383361</v>
       </c>
     </row>
   </sheetData>
@@ -701,10 +701,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>11651159.87996442</v>
+        <v>11651159.97249282</v>
       </c>
       <c r="C2" t="n">
-        <v>7677245.600041921</v>
+        <v>7677245.660213049</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +712,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="n">
-        <v>8439956.328646325</v>
+        <v>8439956.396591682</v>
       </c>
       <c r="C3" t="n">
-        <v>5590705.405305408</v>
+        <v>5590705.44975931</v>
       </c>
     </row>
     <row r="4">
@@ -723,10 +723,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>6092912.762261412</v>
+        <v>6092912.812680811</v>
       </c>
       <c r="C4" t="n">
-        <v>4051300.196204772</v>
+        <v>4051300.229192147</v>
       </c>
     </row>
     <row r="5">
@@ -734,10 +734,10 @@
         <v>55</v>
       </c>
       <c r="B5" t="n">
-        <v>4389186.072542873</v>
+        <v>4389186.109849117</v>
       </c>
       <c r="C5" t="n">
-        <v>2942493.407657434</v>
+        <v>2942493.431917648</v>
       </c>
     </row>
     <row r="6">
@@ -745,10 +745,10 @@
         <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>3159868.895494162</v>
+        <v>3159868.923843875</v>
       </c>
       <c r="C6" t="n">
-        <v>2159172.446448689</v>
+        <v>2159172.46488448</v>
       </c>
     </row>
     <row r="7">
@@ -756,10 +756,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="n">
-        <v>2278775.749971281</v>
+        <v>2278775.771561778</v>
       </c>
       <c r="C7" t="n">
-        <v>1590835.056193812</v>
+        <v>1590835.070539689</v>
       </c>
     </row>
     <row r="8">
@@ -767,10 +767,10 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>1641767.942830244</v>
+        <v>1641767.960185185</v>
       </c>
       <c r="C8" t="n">
-        <v>1163977.554024471</v>
+        <v>1163977.56555602</v>
       </c>
     </row>
     <row r="9">
@@ -778,10 +778,10 @@
         <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>1178555.912578666</v>
+        <v>1178555.926563513</v>
       </c>
       <c r="C9" t="n">
-        <v>863587.1950852912</v>
+        <v>863587.2041796235</v>
       </c>
     </row>
     <row r="10">
@@ -789,10 +789,10 @@
         <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>843948.2848295299</v>
+        <v>843948.2974887707</v>
       </c>
       <c r="C10" t="n">
-        <v>675432.594386644</v>
+        <v>675432.602618936</v>
       </c>
     </row>
   </sheetData>
@@ -827,10 +827,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>16567054.63119454</v>
+        <v>16567054.79618848</v>
       </c>
       <c r="C2" t="n">
-        <v>11220123.9183426</v>
+        <v>11220124.02909681</v>
       </c>
     </row>
     <row r="3">
@@ -838,10 +838,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="n">
-        <v>11516921.51906953</v>
+        <v>11516921.63499308</v>
       </c>
       <c r="C3" t="n">
-        <v>7831445.486058884</v>
+        <v>7831445.564144086</v>
       </c>
     </row>
     <row r="4">
@@ -849,10 +849,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>7990164.781808875</v>
+        <v>7990164.863900013</v>
       </c>
       <c r="C4" t="n">
-        <v>5451054.028898899</v>
+        <v>5451054.084194852</v>
       </c>
     </row>
     <row r="5">
@@ -860,10 +860,10 @@
         <v>55</v>
       </c>
       <c r="B5" t="n">
-        <v>5540352.689158644</v>
+        <v>5540352.747372261</v>
       </c>
       <c r="C5" t="n">
-        <v>3806084.203527255</v>
+        <v>3806084.242603864</v>
       </c>
     </row>
     <row r="6">
@@ -871,10 +871,10 @@
         <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>3846919.736714378</v>
+        <v>3846919.778930512</v>
       </c>
       <c r="C6" t="n">
-        <v>2685317.511908724</v>
+        <v>2685317.540246825</v>
       </c>
     </row>
     <row r="7">
@@ -882,10 +882,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="n">
-        <v>2681406.321099142</v>
+        <v>2681406.351991707</v>
       </c>
       <c r="C7" t="n">
-        <v>1907063.725945584</v>
+        <v>1907063.746989318</v>
       </c>
     </row>
     <row r="8">
@@ -893,10 +893,10 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>1871974.235921485</v>
+        <v>1871974.259618912</v>
       </c>
       <c r="C8" t="n">
-        <v>1351137.917665608</v>
+        <v>1351137.933808081</v>
       </c>
     </row>
     <row r="9">
@@ -904,10 +904,10 @@
         <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>1305414.848687313</v>
+        <v>1305414.86710553</v>
       </c>
       <c r="C9" t="n">
-        <v>972049.4162248793</v>
+        <v>972049.4285883347</v>
       </c>
     </row>
     <row r="10">
@@ -915,10 +915,10 @@
         <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>910772.125145704</v>
+        <v>910772.1410562199</v>
       </c>
       <c r="C10" t="n">
-        <v>736284.8519612262</v>
+        <v>736284.8626413563</v>
       </c>
     </row>
   </sheetData>
